--- a/Traceability Matrix.xlsx
+++ b/Traceability Matrix.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sharang\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="163">
   <si>
     <t>Requirements ID</t>
   </si>
@@ -51,12 +54,6 @@
     <t>Use Case,Contacts Exception &amp; Message Service</t>
   </si>
   <si>
-    <t xml:space="preserve">App should utilize the SMS service of the phone </t>
-  </si>
-  <si>
-    <t>GUI should have separate tabs for events and toggles</t>
-  </si>
-  <si>
     <t xml:space="preserve">App should ask for event title, description,date and time and repeatition  </t>
   </si>
   <si>
@@ -93,12 +90,6 @@
     <t>3.4.3</t>
   </si>
   <si>
-    <t xml:space="preserve">App should neither ask for nor disclose any personal information at any point of time  </t>
-  </si>
-  <si>
-    <t>3.4.4</t>
-  </si>
-  <si>
     <t>App should run on any Android Operation System Version 4.1 or higher</t>
   </si>
   <si>
@@ -117,21 +108,9 @@
     <t>Event Execution, Event Creation</t>
   </si>
   <si>
-    <t>App should access Bluetooth and Wifi settings,all calender related applications and contacts information</t>
-  </si>
-  <si>
-    <t>3.1.3         3.6</t>
-  </si>
-  <si>
-    <t>Use Case, Contacts Exception and Message Service</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.5             2.2                </t>
   </si>
   <si>
-    <t>App should remove details of an event after its completion and restore the mobile profile</t>
-  </si>
-  <si>
     <t>App should provide facility to see the details of an existing event as well as to modify it and also to delete it</t>
   </si>
   <si>
@@ -139,16 +118,443 @@
   </si>
   <si>
     <t>GUI should be as simple as possible</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Defects</t>
+  </si>
+  <si>
+    <t>Use Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case ID </t>
+  </si>
+  <si>
+    <t>Test Scenario</t>
+  </si>
+  <si>
+    <t>TC_profile_01</t>
+  </si>
+  <si>
+    <t>TC_profile_02</t>
+  </si>
+  <si>
+    <t>TC_profile_03</t>
+  </si>
+  <si>
+    <t>TC_profile_04</t>
+  </si>
+  <si>
+    <t>TC_profile_05</t>
+  </si>
+  <si>
+    <t>TC_name</t>
+  </si>
+  <si>
+    <t>TC_date</t>
+  </si>
+  <si>
+    <t>TC_start time</t>
+  </si>
+  <si>
+    <t>TC_endtime</t>
+  </si>
+  <si>
+    <t>TS_Event_01 : Validate the add new event</t>
+  </si>
+  <si>
+    <t>TS_Event_03 : Validate the overlapping of two events with one event repeating</t>
+  </si>
+  <si>
+    <t>TS_Event_04 : Validate the overlapping of two events with both events repeating</t>
+  </si>
+  <si>
+    <t>TS_Event_05 : Get GUI Feedback</t>
+  </si>
+  <si>
+    <t>TC_user_01</t>
+  </si>
+  <si>
+    <t>TC_user_02</t>
+  </si>
+  <si>
+    <t>TC_user_03</t>
+  </si>
+  <si>
+    <t>TC_user_04</t>
+  </si>
+  <si>
+    <t>TC_user_05</t>
+  </si>
+  <si>
+    <t>TC_user_06</t>
+  </si>
+  <si>
+    <t>TC_user_07</t>
+  </si>
+  <si>
+    <t>TC_user_08</t>
+  </si>
+  <si>
+    <t>TC_user_09</t>
+  </si>
+  <si>
+    <t>TC_user_10</t>
+  </si>
+  <si>
+    <t>GUI should have separate screens for events and toggles</t>
+  </si>
+  <si>
+    <t>TS_Event_06 : Validate the working of toggles</t>
+  </si>
+  <si>
+    <t>App should access Bluetooth, Wifi settings, Mobile Settings</t>
+  </si>
+  <si>
+    <t>TC_Bluetooth</t>
+  </si>
+  <si>
+    <t>TC_Wifi</t>
+  </si>
+  <si>
+    <t>TC_Mobile Data</t>
+  </si>
+  <si>
+    <t>TC_Ring profile</t>
+  </si>
+  <si>
+    <t>TC_silent profile</t>
+  </si>
+  <si>
+    <t>TC_vibrate profile</t>
+  </si>
+  <si>
+    <t>App should utilize the SMS service of the phone and provides contacts exception service</t>
+  </si>
+  <si>
+    <t>TS_Event_02 : Validate the overlapping of two events without repeatition</t>
+  </si>
+  <si>
+    <t>TC_4.1</t>
+  </si>
+  <si>
+    <t>TC_4.2</t>
+  </si>
+  <si>
+    <t>TC_4.0</t>
+  </si>
+  <si>
+    <t>App should restore the previous mobile profile settings after the completion of the event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS_Event_07 : Validate the SMS Service </t>
+  </si>
+  <si>
+    <t>3.1.3           3.6</t>
+  </si>
+  <si>
+    <t>TC_01_both events terminate on their respective starting day</t>
+  </si>
+  <si>
+    <t>TC_02_one of the event is extending upto next day</t>
+  </si>
+  <si>
+    <t>TC_03_Both events are extending upto next day</t>
+  </si>
+  <si>
+    <t>TC_04_both events terminate on their respective starting day</t>
+  </si>
+  <si>
+    <t>TC_ 05_only the repeating event Is extending upto next day</t>
+  </si>
+  <si>
+    <t>TC_06_only the non repeating event is extending upto next day</t>
+  </si>
+  <si>
+    <t>TC_07_both events are extending upto next day</t>
+  </si>
+  <si>
+    <t>TC_profile_06</t>
+  </si>
+  <si>
+    <t>TC_profile_07</t>
+  </si>
+  <si>
+    <t>TC_profile_08</t>
+  </si>
+  <si>
+    <t>TC_profile_09</t>
+  </si>
+  <si>
+    <t>TC_profile_10</t>
+  </si>
+  <si>
+    <t>TC_profile_11</t>
+  </si>
+  <si>
+    <t>TC_profile_12</t>
+  </si>
+  <si>
+    <t>TC_profile_13</t>
+  </si>
+  <si>
+    <t>TC_profile_14</t>
+  </si>
+  <si>
+    <t>TC_profile_15</t>
+  </si>
+  <si>
+    <t>TC_profile_16</t>
+  </si>
+  <si>
+    <t>TC_profile_17</t>
+  </si>
+  <si>
+    <t>TC_profile_18</t>
+  </si>
+  <si>
+    <t>TC_profile_19</t>
+  </si>
+  <si>
+    <t>TC_profile_20</t>
+  </si>
+  <si>
+    <t>TC_profile_21</t>
+  </si>
+  <si>
+    <t>TC_profile_22</t>
+  </si>
+  <si>
+    <t>TC_profile_23</t>
+  </si>
+  <si>
+    <t>TC_profile_24</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Mobile data failed</t>
+  </si>
+  <si>
+    <t>Partially Passed</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>TC_08_both events terminate on their respective starting days</t>
+  </si>
+  <si>
+    <t>TC_09_only one event extends upto next day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_10_both events extend upto next day </t>
+  </si>
+  <si>
+    <t>Partially failed</t>
+  </si>
+  <si>
+    <t>Partially passed</t>
+  </si>
+  <si>
+    <t>5.0 / 5.0</t>
+  </si>
+  <si>
+    <t>4.0 / 5.0</t>
+  </si>
+  <si>
+    <t>4.5 / 5.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>TC_profile_single day repeat</t>
+  </si>
+  <si>
+    <t>TC_profile_multiple day repeat</t>
+  </si>
+  <si>
+    <t>TS_Event_05 : Check separate screens for events and toggles</t>
+  </si>
+  <si>
+    <t>TC_phone_01</t>
+  </si>
+  <si>
+    <t>TC_phone_02</t>
+  </si>
+  <si>
+    <t>TC_phone_03</t>
+  </si>
+  <si>
+    <t>TC_phone_04</t>
+  </si>
+  <si>
+    <t>TC_phone_05</t>
+  </si>
+  <si>
+    <t>TC_phone_06</t>
+  </si>
+  <si>
+    <t>TC_phone_07</t>
+  </si>
+  <si>
+    <t>TC_phone_08</t>
+  </si>
+  <si>
+    <t>TC_profile_deletion before start of event</t>
+  </si>
+  <si>
+    <t>TC_profile_deletion during event</t>
+  </si>
+  <si>
+    <t>TS_Event_08 : Custom sms</t>
+  </si>
+  <si>
+    <t>TS_Event_09 : Default sms</t>
+  </si>
+  <si>
+    <t>TS_Event_10 : Empty sms</t>
+  </si>
+  <si>
+    <t>TS_Event_11 : Contacts Exception working</t>
+  </si>
+  <si>
+    <t>TS_Event_12 : Validate the View Event Feature</t>
+  </si>
+  <si>
+    <t>TS_Event_13 : Validate the Edit Event Feature</t>
+  </si>
+  <si>
+    <t>TS_Event_14 : Validate the Delete Event Feature</t>
+  </si>
+  <si>
+    <t>TS_Event_15 : Check if the required fields are not accepted empty</t>
+  </si>
+  <si>
+    <t>TS_Event_16 : Validate the Repeat Event feature</t>
+  </si>
+  <si>
+    <t>TS_Event_17 : Validate the Activation of the Event</t>
+  </si>
+  <si>
+    <t>TS_Event_18 : Validate the Completion of the Event</t>
+  </si>
+  <si>
+    <t>TS_Event_19 : Validate the notification at the start of the event</t>
+  </si>
+  <si>
+    <t>TS_Event_20 : Validate the notification at the end of the event</t>
+  </si>
+  <si>
+    <t>TS_Event_21 : Sound at the start of the event</t>
+  </si>
+  <si>
+    <t>TS_Event_22 : Sound at the end of the event</t>
+  </si>
+  <si>
+    <t>TS_Event_23 : Check the app does not require any external service</t>
+  </si>
+  <si>
+    <t>TS_Event_24 : Validate the compatibility of the application</t>
+  </si>
+  <si>
+    <t>TS_Event_25 : Check if the mobile settings are restored on event completion without event being edited</t>
+  </si>
+  <si>
+    <t>TS_Event_26 : Check if the mobile settings are restored on event completion without event being edited</t>
+  </si>
+  <si>
+    <t>TC_profile_25</t>
+  </si>
+  <si>
+    <t>TC_profile_26</t>
+  </si>
+  <si>
+    <t>TC_profile_27</t>
+  </si>
+  <si>
+    <t>TC_profile_28</t>
+  </si>
+  <si>
+    <t>TC_profile_29</t>
+  </si>
+  <si>
+    <t>TC_profile_30</t>
+  </si>
+  <si>
+    <t>Failed, Crashed</t>
+  </si>
+  <si>
+    <t>20 % unsuccessful</t>
+  </si>
+  <si>
+    <t>23 % unsuccessful</t>
+  </si>
+  <si>
+    <t>25 % unsuccessful</t>
+  </si>
+  <si>
+    <t>TC_profile_31</t>
+  </si>
+  <si>
+    <t>TC_profile_32</t>
+  </si>
+  <si>
+    <t>TC_profile_33</t>
+  </si>
+  <si>
+    <t>could not test due to unavailability of API levels below 4.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -174,9 +580,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -185,6 +636,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF006600"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -231,7 +695,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,9 +727,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -297,6 +762,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -472,270 +938,1388 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="C88" workbookViewId="0">
+      <selection activeCell="C98" sqref="A98:XFD98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="16.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="53.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="15" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="30">
-      <c r="A2" s="1">
+      <c r="E1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="11">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="30">
-      <c r="A3" s="1">
+      <c r="E2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C8" s="11">
         <v>2.5</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D8" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="33" customHeight="1">
-      <c r="A4" s="1">
+      <c r="E8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="30">
-      <c r="A5" s="1">
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+    </row>
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>5</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>6</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H40" s="11"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H41" s="11"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H42" s="11"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H43" s="11"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H44" s="11"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H45" s="11"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D49" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="4"/>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
+        <v>7</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="11"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="11">
+        <v>8</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="D61" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="11"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="11"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="11"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="10"/>
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="11"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="11"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="11">
+        <v>9</v>
+      </c>
+      <c r="B69" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="60">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="45">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="11"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="11"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="10"/>
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="11"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="11"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="11">
+        <v>10</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="11"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="11"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="10"/>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="11"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="11"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="4"/>
+      <c r="F80" s="4"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E81" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="4"/>
+      <c r="F82" s="4"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E83" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="5"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="4"/>
+      <c r="F84" s="4"/>
+    </row>
+    <row r="85" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="60">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="45">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="B85" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A87" s="11">
+        <v>12</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G87" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="11"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="11"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
         <v>13</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
         <v>14</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="B93" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="11">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="45">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="45">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="45">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="45">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="45">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B95" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D95" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="30">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="45">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="45">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="E95" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="11"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="11"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="5"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="4"/>
+      <c r="F98" s="4"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E99" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E100" s="10"/>
+      <c r="F100" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E101" s="10"/>
+      <c r="F101" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F102" s="4"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F103" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="65">
+    <mergeCell ref="E99:E101"/>
+    <mergeCell ref="H8:H17"/>
+    <mergeCell ref="H39:H46"/>
+    <mergeCell ref="E39:E46"/>
+    <mergeCell ref="D39:D46"/>
+    <mergeCell ref="B8:B17"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="D8:D17"/>
+    <mergeCell ref="C8:C17"/>
+    <mergeCell ref="E19:E28"/>
+    <mergeCell ref="D19:D28"/>
+    <mergeCell ref="C19:C28"/>
+    <mergeCell ref="B19:B28"/>
+    <mergeCell ref="E32:E37"/>
+    <mergeCell ref="D32:D37"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="D69:D73"/>
+    <mergeCell ref="C69:C73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="B39:B46"/>
+    <mergeCell ref="D52:D59"/>
+    <mergeCell ref="C52:C59"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="C39:C46"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="A19:A29"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A39:A46"/>
+    <mergeCell ref="E87:E89"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A61:A67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="D75:D79"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="E61:E64"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D61:D67"/>
+    <mergeCell ref="C61:C67"/>
+    <mergeCell ref="B61:B67"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="D95:D97"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="A95:A97"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>